--- a/excel/model.xlsx
+++ b/excel/model.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\BonParser\bon_parser\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D5958FB7-90F1-4EC5-B45B-1718A0766A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E308F-4BA0-471D-B4F3-5E0D072D2F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <r>
       <t>UNITATEA:</t>
@@ -54,10 +54,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Nr. document
-</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -76,40 +72,18 @@
     <t>Nr. crt</t>
   </si>
   <si>
-    <t>Denumirea materialelor                                                                                                                                            ( inclusiv sort, marca, profil, dimensiune)</t>
+    <t>Produse</t>
   </si>
   <si>
-    <t>Cantitatea</t>
-  </si>
-  <si>
-    <t>UM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantitatea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pret </t>
-  </si>
-  <si>
-    <t>Valoare</t>
-  </si>
-  <si>
-    <t>necesara</t>
-  </si>
-  <si>
-    <t>eliberata</t>
-  </si>
-  <si>
-    <t>unitar</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -155,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -212,37 +186,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -252,21 +202,6 @@
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -285,45 +220,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -393,57 +289,42 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -458,7 +339,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -472,58 +364,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -542,6 +382,43 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -551,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,200 +442,160 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1093,308 +930,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="27" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="48" t="s">
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
         <v>9</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="52"/>
-    </row>
-    <row r="6" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
-        <v>2</v>
-      </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
-        <v>3</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
-        <v>4</v>
-      </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
-        <v>5</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
-        <v>6</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
-        <v>7</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13">
-        <v>8</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
-        <v>9</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
-        <v>10</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:I2"/>
+  <mergeCells count="16">
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C15:J15"/>
     <mergeCell ref="J2:L4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="K5:L6"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C5:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/model.xlsx
+++ b/excel/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\BonParser\bon_parser\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E308F-4BA0-471D-B4F3-5E0D072D2F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294DB01-19AB-4A60-AAA5-F7C135C4EDB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -387,11 +387,22 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -402,6 +413,82 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -411,11 +498,69 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -428,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,7 +599,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -464,133 +609,169 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,37 +1115,37 @@
   <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
@@ -974,207 +1155,217 @@
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="8"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="29" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="30"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>6</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>7</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>8</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>9</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="60"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C15:J15"/>
+  <mergeCells count="26">
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="J2:L4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:L6"/>
     <mergeCell ref="C5:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="B2:F4"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
